--- a/results_it/late_April_corr_ranking.xlsx
+++ b/results_it/late_April_corr_ranking.xlsx
@@ -453,742 +453,742 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4425083728797911</v>
+        <v>0.5316616966199793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01433930018139995</v>
+        <v>0.002083973460910719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>total_precip_mm_120days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4421629458002688</v>
+        <v>0.5155096029286723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01442455300915348</v>
+        <v>0.002997251695930056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_120days_sum</t>
+          <t>min_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4348629792400063</v>
+        <v>0.512066402397147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01632740548641229</v>
+        <v>0.0032313755929161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_120days_sum</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.409543405362216</v>
+        <v>0.5014337723707818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.024610976464595</v>
+        <v>0.004056586962766686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4075764873407862</v>
+        <v>0.4921889494072312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02537720042159378</v>
+        <v>0.004915234075563535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4024978515111446</v>
+        <v>0.4882278114069238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02744616292868426</v>
+        <v>0.005328206847138485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_120days_sum</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4018278350750988</v>
+        <v>0.4787253167356856</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0277290976828509</v>
+        <v>0.006441525842664307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3953380872954338</v>
+        <v>0.4660935295279127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03059449468195434</v>
+        <v>0.008223397898650016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>sunshine_duration_h_120days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3942832594088402</v>
+        <v>-0.4563243887805258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03108214755657696</v>
+        <v>0.009873019320243473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>total_precip_mm_120days_sum</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3886010281599396</v>
+        <v>0.4506540742180946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03381862885095167</v>
+        <v>0.0109525961753485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3869690731712672</v>
+        <v>0.4456564752685556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03463953780631082</v>
+        <v>0.01198481149472101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.383099124269811</v>
+        <v>0.4318175622202462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03665058981090498</v>
+        <v>0.01527762901278944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3794918555610499</v>
+        <v>0.4272248701730534</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03860876359744705</v>
+        <v>0.01652451982912933</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3744264572051332</v>
+        <v>0.4029701754867638</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04149935182381243</v>
+        <v>0.02459485615554591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>min_temp_C_120days_sum</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.373115628835603</v>
+        <v>0.4029701754867637</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04227489926838338</v>
+        <v>0.024594856155546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3704673864143031</v>
+        <v>0.396726112126719</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04387705891387143</v>
+        <v>0.02712745524650957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.367594386740439</v>
+        <v>0.3950219084108591</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04566959485427237</v>
+        <v>0.02785451319718325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_120days_sum</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.36167329038239</v>
+        <v>0.3945571657991081</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04954768780147223</v>
+        <v>0.02805552094296439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3586065823578039</v>
+        <v>-0.3921248734970273</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05165641095695336</v>
+        <v>0.02912692084120576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3585189495862928</v>
+        <v>0.3911846612461517</v>
       </c>
       <c r="C21" t="n">
-        <v>0.051717695251239</v>
+        <v>0.02954990633071552</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3408739762790322</v>
+        <v>0.3810828836075363</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06527686444440656</v>
+        <v>0.03441797475340526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3397281924153255</v>
+        <v>0.3707002577993542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0662448575836406</v>
+        <v>0.04007764965476279</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.3385585208986568</v>
+        <v>0.3688629297978195</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06724452154045671</v>
+        <v>0.04115290288728415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3375732090575099</v>
+        <v>0.3688629297978193</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06809569202459312</v>
+        <v>0.04115290288728425</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>total_precip_mm_91-120days_avg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3215792012633283</v>
+        <v>0.3587609914096543</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08311582501167092</v>
+        <v>0.04748506723675425</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3164031700090175</v>
+        <v>0.3506030823587836</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08848358911685095</v>
+        <v>0.0531451339248622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3133381585653293</v>
+        <v>0.3421619623294301</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09178428276478405</v>
+        <v>0.05955036593943695</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3126403860133825</v>
+        <v>-0.341451212356138</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09254860697005514</v>
+        <v>0.06011621418023494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3120262534494422</v>
+        <v>0.339925971377575</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09322530123675046</v>
+        <v>0.06134474793223839</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.3019664254781766</v>
+        <v>0.3399259713775748</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1048515661388607</v>
+        <v>0.06134474793223839</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2875324696934484</v>
+        <v>0.3369581846840661</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1233887839493713</v>
+        <v>0.06379155698375219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.2829440228542454</v>
+        <v>0.3365729754939996</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1297597371918598</v>
+        <v>0.06411466215199592</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2745518967553375</v>
+        <v>0.3363976727890339</v>
       </c>
       <c r="C34" t="n">
-        <v>0.142030938770402</v>
+        <v>0.06426212525119571</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.246395794133415</v>
+        <v>0.3340207368165046</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1893296167957298</v>
+        <v>0.06628786361711597</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
+          <t>mean_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2458122919893109</v>
+        <v>0.3313472524449218</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1904133919042221</v>
+        <v>0.06862548724571105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_91-120days_avg</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2440459595285749</v>
+        <v>0.3235329964801756</v>
       </c>
       <c r="C37" t="n">
-        <v>0.193720406016975</v>
+        <v>0.07582693807443355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2414205938408289</v>
+        <v>0.32068836533497</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1987090465976745</v>
+        <v>0.07858871989300982</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2414205938408288</v>
+        <v>-0.3192663096432982</v>
       </c>
       <c r="C39" t="n">
-        <v>0.198709046597675</v>
+        <v>0.07999809842808799</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2310993229345761</v>
+        <v>0.3148210541643838</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2191790257889003</v>
+        <v>0.084529356496825</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2310993229345761</v>
+        <v>0.3097517825071759</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2191790257889003</v>
+        <v>0.08993384125925699</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mean_temp_C_120days_sum</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2271303489275024</v>
+        <v>-0.3037799131705156</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2274183394010364</v>
+        <v>0.0966340169967748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2213571950887425</v>
+        <v>0.3029971065632742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2397713022847172</v>
+        <v>0.09753958676358096</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.220761280784577</v>
+        <v>0.3029971065632742</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2410713559013741</v>
+        <v>0.09753958676358096</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>min_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.220761280784577</v>
+        <v>0.2993582936311391</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2410713559013741</v>
+        <v>0.1018335833319318</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_91-120days_avg</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.218433068324121</v>
+        <v>0.2934551864773032</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2461955268902694</v>
+        <v>0.1091005415589558</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2173240899742161</v>
+        <v>0.2838001656790804</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2486614623150511</v>
+        <v>0.1218133627778124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>min_temp_C_91-120days_avg</t>
+          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2109997252437708</v>
+        <v>0.2666142629695531</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2630358069348805</v>
+        <v>0.1471039699331327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2081640390417173</v>
+        <v>0.2636588773034599</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2696533826946309</v>
+        <v>0.151810043822707</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>mean_humidity_pct_120days_sum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2081640390417173</v>
+        <v>0.2557372701924704</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2696533826946313</v>
+        <v>0.164957837984861</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>min_temp_C_61-90days_avg</t>
+          <t>sunshine_duration_h_91-120days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2070909088246506</v>
+        <v>-0.2490259848919872</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2721856284868308</v>
+        <v>0.1767160929488324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2049598778504699</v>
+        <v>-0.2431520576074848</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2772596466773419</v>
+        <v>0.1874824499781377</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>min_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2032787934859721</v>
+        <v>0.236055647320301</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2813050249111922</v>
+        <v>0.2010908285178176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2001093879454126</v>
+        <v>-0.2360469241628814</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2890343696158327</v>
+        <v>0.2011079652881316</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1937255261737684</v>
+        <v>0.2354005443892546</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3050094163702102</v>
+        <v>0.2023805963478959</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1930638456548631</v>
+        <v>0.232839181220444</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3066962720426957</v>
+        <v>0.2074781707745119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1923001353300883</v>
+        <v>0.2307796396329477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3086504847832173</v>
+        <v>0.2116404970640901</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.190427256482386</v>
+        <v>0.227421861631989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3134757430993684</v>
+        <v>0.2185484447611646</v>
       </c>
     </row>
     <row r="59">
@@ -1198,387 +1198,387 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1855717555216726</v>
+        <v>0.2251177658608931</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3262025109821345</v>
+        <v>0.2233764493311371</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>mean_humidity_pct_91-120days_avg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.1822314108408468</v>
+        <v>0.2229695703666224</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3351394431493337</v>
+        <v>0.2279424088123715</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1773428384953451</v>
+        <v>0.2180933421325991</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3484843351539932</v>
+        <v>0.2385392274445808</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.1725944469189774</v>
+        <v>-0.20841499904533</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3617473928734851</v>
+        <v>0.2605340430808978</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.168824301909008</v>
+        <v>-0.20841499904533</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3724878923001403</v>
+        <v>0.2605340430808978</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1648396176409346</v>
+        <v>-0.205254439694885</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3840401194750767</v>
+        <v>0.2679953613432047</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1648396176409346</v>
+        <v>0.2020026481206326</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3840401194750767</v>
+        <v>0.2758157661912479</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_120days_sum</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1577759594264803</v>
+        <v>0.2003586115977549</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4050204647948865</v>
+        <v>0.2798251318923557</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.150594800413387</v>
+        <v>0.1983395092003953</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4269983712960307</v>
+        <v>0.2848002492246543</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_91-120days_avg</t>
+          <t>mean_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.1453913204674789</v>
+        <v>-0.1953734990298915</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4433251785084024</v>
+        <v>0.2922106922305731</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1443375212162645</v>
+        <v>-0.192162004366237</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4466721911677307</v>
+        <v>0.3003714985063287</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.142838230755422</v>
+        <v>0.1754760153157868</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4514574788890599</v>
+        <v>0.3450603525095848</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.142838230755422</v>
+        <v>-0.1735499913713544</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4514574788890603</v>
+        <v>0.3504644858072328</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1411361783372162</v>
+        <v>0.1697270591931188</v>
       </c>
       <c r="C72" t="n">
-        <v>0.456922974227736</v>
+        <v>0.3613405920206949</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1396428197713713</v>
+        <v>-0.1633177825191306</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4617471130535578</v>
+        <v>0.380018302615202</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>mean_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.1363178338776411</v>
+        <v>-0.1605026098574874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4725839953536235</v>
+        <v>0.3883965221881677</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1363178338776411</v>
+        <v>0.1490086449277509</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4725839953536235</v>
+        <v>0.4236918527020362</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_90days_sum</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.1297223363591334</v>
+        <v>0.1487884412743208</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4944658631924512</v>
+        <v>0.4243849130683927</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.1158125161125966</v>
+        <v>-0.1467067194907402</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5422368830778904</v>
+        <v>0.4309677803888998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>max_temp_C_91-120days_avg</t>
+          <t>mean_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1118777100907004</v>
+        <v>-0.1420193340655981</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5561334739543776</v>
+        <v>0.4459937250705905</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1065010970902068</v>
+        <v>-0.135262346598687</v>
       </c>
       <c r="C79" t="n">
-        <v>0.575383237245061</v>
+        <v>0.4681423283611318</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.103325101907115</v>
+        <v>-0.1342940493214248</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5868920837630157</v>
+        <v>0.4713628279736726</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_120days_sum</t>
+          <t>max_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1003611026185458</v>
+        <v>-0.1331089346368396</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5977226910437694</v>
+        <v>0.4753201439136417</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09573906295065501</v>
+        <v>0.1320681978201234</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6147806706900932</v>
+        <v>0.4788095399479923</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09444853775082093</v>
+        <v>0.1289578207201127</v>
       </c>
       <c r="C83" t="n">
-        <v>0.619579348966089</v>
+        <v>0.4893165226265298</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.09237414924604033</v>
+        <v>0.1289578207201127</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6273248743832851</v>
+        <v>0.4893165226265298</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.08389632933570361</v>
+        <v>-0.1245503184641083</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6593781030865082</v>
+        <v>0.5044041081584792</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>max_temp_C_120days_sum</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08086043202147337</v>
+        <v>0.12358282085334</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6710054705891569</v>
+        <v>0.5077468112600482</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>max_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.08040127744375637</v>
+        <v>0.1228970160370862</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6727705971461022</v>
+        <v>0.5101229171427526</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>max_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07254383996014947</v>
+        <v>-0.1218071409649474</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7032343983663857</v>
+        <v>0.5139103045345549</v>
       </c>
     </row>
     <row r="89">
@@ -1588,270 +1588,270 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.07250264394860136</v>
+        <v>-0.1174048624110407</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7033953606629304</v>
+        <v>0.5293482041299199</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07213234151503187</v>
+        <v>-0.1166218028782366</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7048427808866761</v>
+        <v>0.5321174355776266</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>max_temp_C_61-90days_avg</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.065107630729253</v>
+        <v>-0.1141380661321637</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7324868983489273</v>
+        <v>0.540946693482275</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06409632789244045</v>
+        <v>-0.1140791015642198</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7364947475114281</v>
+        <v>0.5411571416704967</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06306419876010701</v>
+        <v>-0.1119558813276172</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7405921310679511</v>
+        <v>0.5487607463046641</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.06253294656451068</v>
+        <v>-0.1119558813276172</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7427038379631248</v>
+        <v>0.5487607463046641</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06239163127690601</v>
+        <v>-0.1014304963798567</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7432658697979199</v>
+        <v>0.5871731333385452</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.05880292359237837</v>
+        <v>0.1013465206688179</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7575813197801495</v>
+        <v>0.5874842823615621</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05854765760060755</v>
+        <v>0.1013465206688179</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7586026454929276</v>
+        <v>0.5874842823615621</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05854765760060754</v>
+        <v>-0.1006128203502432</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7586026454929276</v>
+        <v>0.5902058764976928</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.05765720022690279</v>
+        <v>-0.09624058214752299</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7621684958137797</v>
+        <v>0.606537006164421</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.05515001752235534</v>
+        <v>-0.09542831729511841</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7722339976061257</v>
+        <v>0.6095919097897274</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.04928524785454007</v>
+        <v>-0.09179179086692685</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7959184130211212</v>
+        <v>0.6233473596903637</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.04072545041770933</v>
+        <v>0.09167689892477915</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8308023731920979</v>
+        <v>0.6237840148834268</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_91-120days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.03567368397834399</v>
+        <v>0.09167689892477913</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8515433632475068</v>
+        <v>0.6237840148834268</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.03447263086212565</v>
+        <v>0.09004146304662974</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8564893673066687</v>
+        <v>0.6300131294066643</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>max_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.03447263086212557</v>
+        <v>0.0866131845456697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8564893673066695</v>
+        <v>0.6431516569099333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>total_precip_mm_91-120days_avg</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.02095199416413961</v>
+        <v>0.08108423582218731</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9124931585024878</v>
+        <v>0.6645638036215695</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.01507314264829184</v>
+        <v>0.07910326448859674</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9369886705541517</v>
+        <v>0.6723002275691013</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>max_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01479485820846589</v>
+        <v>0.07398318318894967</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9381497765308213</v>
+        <v>0.6924472258973193</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01396372291167408</v>
+        <v>0.04810631051430586</v>
       </c>
       <c r="C109" t="n">
-        <v>0.941618312472743</v>
+        <v>0.7971892845650415</v>
       </c>
     </row>
   </sheetData>
